--- a/Sura/Endoso_Modificacion_De_Coberturas.xlsx
+++ b/Sura/Endoso_Modificacion_De_Coberturas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705B6992-5722-454C-9058-777E836AB87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9E260-51DB-44F6-9639-A38933A07713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,9 +84,6 @@
     <t>https://i-preproducciongestion.segurossura.com.ar/pc/PolicyCenter.do</t>
   </si>
   <si>
-    <t>04104009144</t>
-  </si>
-  <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t>04104012812</t>
+  </si>
+  <si>
+    <t>04104013194</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>7</v>
@@ -567,10 +567,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -579,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>7</v>

--- a/Sura/Endoso_Modificacion_De_Coberturas.xlsx
+++ b/Sura/Endoso_Modificacion_De_Coberturas.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A9E260-51DB-44F6-9639-A38933A07713}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE900409-77D5-44A0-AC71-FBA5721FED0C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,7 +93,7 @@
     <t>04104012812</t>
   </si>
   <si>
-    <t>04104013194</t>
+    <t>04104016434</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
